--- a/company_report.xlsx
+++ b/company_report.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
   <si>
     <t>bin</t>
   </si>
@@ -85,13 +85,10 @@
     <t>https://pk.adata.kz/company/180340021395</t>
   </si>
   <si>
-    <t>средняя</t>
+    <t>ок</t>
   </si>
   <si>
     <t>да</t>
-  </si>
-  <si>
-    <t>ок</t>
   </si>
   <si>
     <t>есть</t>
@@ -660,23 +657,26 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
       </c>
       <c r="N2">
         <v>8769</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -700,46 +700,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -807,28 +807,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -878,46 +878,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -985,46 +985,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1092,34 +1092,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1127,34 +1127,34 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>101111</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1162,34 +1162,34 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>101111</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1251,46 +1251,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1372,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1399,46 +1399,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15">
